--- a/src/Excel/entregable1/CancelacionCTS.xlsx
+++ b/src/Excel/entregable1/CancelacionCTS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>usuario</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>6 mar. 2023, 16:05:22</t>
+  </si>
+  <si>
+    <t>21 abr. 2023, 00:31:55</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CancelacionCTS.xlsx
+++ b/src/Excel/entregable1/CancelacionCTS.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273D9A56-16BE-4D3F-B876-DF61592199E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A227997D-5096-46D3-99C6-8ED9778099E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1960" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CancelacionCTS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -66,35 +66,19 @@
     <t/>
   </si>
   <si>
-    <t>5 mar. 2023, 20:23:23</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 12:10:00</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 13:53:06</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 13:56:01</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 15:56:23</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 15:58:22</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 16:05:22</t>
-  </si>
-  <si>
     <t>21 abr. 2023, 00:31:55</t>
+  </si>
+  <si>
+    <t>usuarioAp</t>
+  </si>
+  <si>
+    <t>SCISNEROSC1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,23 +405,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -450,19 +435,22 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -474,13 +462,16 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>20</v>
+      <c r="H2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CancelacionCTS.xlsx
+++ b/src/Excel/entregable1/CancelacionCTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A227997D-5096-46D3-99C6-8ED9778099E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BF1345-4A6A-4282-8025-C90CB8844A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,12 +408,12 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>

--- a/src/Excel/entregable1/CancelacionCTS.xlsx
+++ b/src/Excel/entregable1/CancelacionCTS.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BF1345-4A6A-4282-8025-C90CB8844A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A63B2B-D596-4485-84E0-4A8BF5D67B2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>usuario</t>
   </si>
@@ -45,9 +45,6 @@
     <t>123456</t>
   </si>
   <si>
-    <t>1001614138</t>
-  </si>
-  <si>
     <t>Cancelación Anticipada</t>
   </si>
   <si>
@@ -66,19 +63,74 @@
     <t/>
   </si>
   <si>
-    <t>21 abr. 2023, 00:31:55</t>
-  </si>
-  <si>
     <t>usuarioAp</t>
   </si>
   <si>
     <t>SCISNEROSC1</t>
+  </si>
+  <si>
+    <t>24 may. 2023, 17:19:07</t>
+  </si>
+  <si>
+    <t>1001615285</t>
+  </si>
+  <si>
+    <t>AASIM2314424Q04FB</t>
+  </si>
+  <si>
+    <t>24 may. 2023, 17:23:08</t>
+  </si>
+  <si>
+    <t>AASIM2314424Q0515</t>
+  </si>
+  <si>
+    <t>24 may. 2023, 17:25:48</t>
+  </si>
+  <si>
+    <t>AASIM23144KKRWY9Y</t>
+  </si>
+  <si>
+    <t>24 may. 2023, 17:27:26</t>
+  </si>
+  <si>
+    <t>AASIM23144M3Z5P53</t>
+  </si>
+  <si>
+    <t>24 may. 2023, 17:30:43</t>
+  </si>
+  <si>
+    <t>AASIM23144ZBWPHRL</t>
+  </si>
+  <si>
+    <t>24 may. 2023, 17:32:24</t>
+  </si>
+  <si>
+    <t>AASIM231440FQ9NT3</t>
+  </si>
+  <si>
+    <t>24 may. 2023, 17:35:10</t>
+  </si>
+  <si>
+    <t>AASIM231444FJ09LL</t>
+  </si>
+  <si>
+    <t>24 may. 2023, 17:40:08</t>
+  </si>
+  <si>
+    <t>AASIM23144MBSVMD4</t>
+  </si>
+  <si>
+    <t>AASIM2314563DFDDL</t>
+  </si>
+  <si>
+    <t>AASIM23145ZX4SBHD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,18 +460,18 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -436,42 +488,42 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CancelacionCTS.xlsx
+++ b/src/Excel/entregable1/CancelacionCTS.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A63B2B-D596-4485-84E0-4A8BF5D67B2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88CB4F6-F56E-4E89-A308-FD196B732CAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>usuario</t>
   </si>
@@ -39,9 +39,6 @@
     <t>razon</t>
   </si>
   <si>
-    <t>SCISNEROSCSUP1</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -60,77 +57,25 @@
     <t>FAILED</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>usuarioAp</t>
   </si>
   <si>
-    <t>SCISNEROSC1</t>
-  </si>
-  <si>
-    <t>24 may. 2023, 17:19:07</t>
-  </si>
-  <si>
     <t>1001615285</t>
   </si>
   <si>
-    <t>AASIM2314424Q04FB</t>
-  </si>
-  <si>
-    <t>24 may. 2023, 17:23:08</t>
-  </si>
-  <si>
-    <t>AASIM2314424Q0515</t>
-  </si>
-  <si>
-    <t>24 may. 2023, 17:25:48</t>
-  </si>
-  <si>
-    <t>AASIM23144KKRWY9Y</t>
-  </si>
-  <si>
-    <t>24 may. 2023, 17:27:26</t>
-  </si>
-  <si>
-    <t>AASIM23144M3Z5P53</t>
-  </si>
-  <si>
-    <t>24 may. 2023, 17:30:43</t>
-  </si>
-  <si>
-    <t>AASIM23144ZBWPHRL</t>
-  </si>
-  <si>
-    <t>24 may. 2023, 17:32:24</t>
-  </si>
-  <si>
-    <t>AASIM231440FQ9NT3</t>
-  </si>
-  <si>
-    <t>24 may. 2023, 17:35:10</t>
-  </si>
-  <si>
-    <t>AASIM231444FJ09LL</t>
-  </si>
-  <si>
-    <t>24 may. 2023, 17:40:08</t>
-  </si>
-  <si>
-    <t>AASIM23144MBSVMD4</t>
-  </si>
-  <si>
-    <t>AASIM2314563DFDDL</t>
-  </si>
-  <si>
-    <t>AASIM23145ZX4SBHD</t>
+    <t>ebenito</t>
+  </si>
+  <si>
+    <t>26 may. 2023, 10:33:37</t>
+  </si>
+  <si>
+    <t>AASIM23146NPR6209</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,18 +405,18 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -488,42 +433,42 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CancelacionCTS.xlsx
+++ b/src/Excel/entregable1/CancelacionCTS.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88CB4F6-F56E-4E89-A308-FD196B732CAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D327585-BE88-4CC5-8577-21831DB917A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>usuario</t>
   </si>
@@ -54,28 +54,41 @@
     <t>Fecha</t>
   </si>
   <si>
+    <t>usuarioAp</t>
+  </si>
+  <si>
+    <t>ebenito</t>
+  </si>
+  <si>
+    <t>1006664648</t>
+  </si>
+  <si>
+    <t>SCISNEROSCSUP1</t>
+  </si>
+  <si>
+    <t>AASIM23177L8VG625</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>usuarioAp</t>
-  </si>
-  <si>
-    <t>1001615285</t>
-  </si>
-  <si>
-    <t>ebenito</t>
-  </si>
-  <si>
-    <t>26 may. 2023, 10:33:37</t>
-  </si>
-  <si>
-    <t>AASIM23146NPR6209</t>
+    <t/>
+  </si>
+  <si>
+    <t>26 jun. 2023, 12:39:34</t>
+  </si>
+  <si>
+    <t>AASIM2317759KYJ9K</t>
+  </si>
+  <si>
+    <t>26 jun. 2023, 12:42:06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,18 +418,18 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.90625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -433,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>6</v>
@@ -447,7 +460,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -462,13 +475,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CancelacionCTS.xlsx
+++ b/src/Excel/entregable1/CancelacionCTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D327585-BE88-4CC5-8577-21831DB917A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D729B540-903D-4E49-B04F-14E67F2E7AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>usuario</t>
   </si>
@@ -36,9 +36,6 @@
     <t>cuenta</t>
   </si>
   <si>
-    <t>razon</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -66,22 +63,10 @@
     <t>SCISNEROSCSUP1</t>
   </si>
   <si>
-    <t>AASIM23177L8VG625</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>26 jun. 2023, 12:39:34</t>
-  </si>
-  <si>
-    <t>AASIM2317759KYJ9K</t>
-  </si>
-  <si>
-    <t>26 jun. 2023, 12:42:06</t>
+    <t>razoncierre</t>
+  </si>
+  <si>
+    <t>AASIM23177L8VJBJ9</t>
   </si>
 </sst>
 </file>
@@ -418,7 +403,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -443,45 +428,39 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CancelacionCTS.xlsx
+++ b/src/Excel/entregable1/CancelacionCTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D729B540-903D-4E49-B04F-14E67F2E7AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F0814B-AD70-4487-B98C-94C6C3C1385B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>usuario</t>
   </si>
@@ -57,16 +57,31 @@
     <t>ebenito</t>
   </si>
   <si>
-    <t>1006664648</t>
-  </si>
-  <si>
-    <t>SCISNEROSCSUP1</t>
-  </si>
-  <si>
     <t>razoncierre</t>
   </si>
   <si>
-    <t>AASIM23177L8VJBJ9</t>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1001699489</t>
+  </si>
+  <si>
+    <t>30 jun. 2023, 14:57:50</t>
+  </si>
+  <si>
+    <t>SCISNEROSS1</t>
+  </si>
+  <si>
+    <t>AASIM231810D5F6PP</t>
+  </si>
+  <si>
+    <t>AASIM2318114N06JJ</t>
+  </si>
+  <si>
+    <t>30 jun. 2023, 15:01:53</t>
   </si>
 </sst>
 </file>
@@ -403,7 +418,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -412,7 +427,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.26953125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="18.90625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
@@ -428,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>8</v>
@@ -451,16 +466,22 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CancelacionCTS.xlsx
+++ b/src/Excel/entregable1/CancelacionCTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F0814B-AD70-4487-B98C-94C6C3C1385B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFB5065-FD07-439E-B160-77352CB07A36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>usuario</t>
   </si>
@@ -60,28 +60,22 @@
     <t>razoncierre</t>
   </si>
   <si>
+    <t>1001609528</t>
+  </si>
+  <si>
+    <t>ACHACALTANASP1</t>
+  </si>
+  <si>
+    <t>AASIM231844KSLN1S</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>1001699489</t>
-  </si>
-  <si>
-    <t>30 jun. 2023, 14:57:50</t>
-  </si>
-  <si>
-    <t>SCISNEROSS1</t>
-  </si>
-  <si>
-    <t>AASIM231810D5F6PP</t>
-  </si>
-  <si>
-    <t>AASIM2318114N06JJ</t>
-  </si>
-  <si>
-    <t>30 jun. 2023, 15:01:53</t>
+    <t>3 jul. 2023, 09:23:51</t>
   </si>
 </sst>
 </file>
@@ -418,7 +412,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,22 +460,22 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CancelacionCTS.xlsx
+++ b/src/Excel/entregable1/CancelacionCTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFB5065-FD07-439E-B160-77352CB07A36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D2868-1831-4EB5-89B0-A69EC3A2127A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>usuario</t>
   </si>
@@ -54,19 +54,19 @@
     <t>usuarioAp</t>
   </si>
   <si>
-    <t>ebenito</t>
-  </si>
-  <si>
     <t>razoncierre</t>
   </si>
   <si>
     <t>1001609528</t>
   </si>
   <si>
-    <t>ACHACALTANASP1</t>
-  </si>
-  <si>
-    <t>AASIM231844KSLN1S</t>
+    <t>SCISNEROSCSUP1</t>
+  </si>
+  <si>
+    <t>SCISNEROSC1</t>
+  </si>
+  <si>
+    <t>AASIM2318448HK7FC</t>
   </si>
   <si>
     <t>FAILED</t>
@@ -75,7 +75,31 @@
     <t/>
   </si>
   <si>
-    <t>3 jul. 2023, 09:23:51</t>
+    <t>3 jul. 2023, 16:14:46</t>
+  </si>
+  <si>
+    <t>AASIM2318409DVTLN</t>
+  </si>
+  <si>
+    <t>AASIM2318450Y2SFN</t>
+  </si>
+  <si>
+    <t>3 jul. 2023, 16:22:18</t>
+  </si>
+  <si>
+    <t>AASIM2318409DVWHG</t>
+  </si>
+  <si>
+    <t>3 jul. 2023, 16:26:07</t>
+  </si>
+  <si>
+    <t>AASIM23184T823KDR</t>
+  </si>
+  <si>
+    <t>AASIM231844JNSR0S</t>
+  </si>
+  <si>
+    <t>3 jul. 2023, 16:33:11</t>
   </si>
 </sst>
 </file>
@@ -412,12 +436,12 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="13.81640625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
@@ -437,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>8</v>
@@ -454,19 +478,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -475,7 +499,7 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CancelacionCTS.xlsx
+++ b/src/Excel/entregable1/CancelacionCTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D2868-1831-4EB5-89B0-A69EC3A2127A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D80808B-720A-4297-A39D-9FDAD0C3567F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>usuario</t>
   </si>
@@ -57,49 +57,19 @@
     <t>razoncierre</t>
   </si>
   <si>
-    <t>1001609528</t>
-  </si>
-  <si>
     <t>SCISNEROSCSUP1</t>
   </si>
   <si>
     <t>SCISNEROSC1</t>
   </si>
   <si>
-    <t>AASIM2318448HK7FC</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>3 jul. 2023, 16:14:46</t>
-  </si>
-  <si>
-    <t>AASIM2318409DVTLN</t>
-  </si>
-  <si>
-    <t>AASIM2318450Y2SFN</t>
-  </si>
-  <si>
-    <t>3 jul. 2023, 16:22:18</t>
-  </si>
-  <si>
-    <t>AASIM2318409DVWHG</t>
-  </si>
-  <si>
-    <t>3 jul. 2023, 16:26:07</t>
-  </si>
-  <si>
-    <t>AASIM23184T823KDR</t>
-  </si>
-  <si>
-    <t>AASIM231844JNSR0S</t>
-  </si>
-  <si>
-    <t>3 jul. 2023, 16:33:11</t>
+    <t>AASIM232006QX0W69</t>
+  </si>
+  <si>
+    <t>1001615285</t>
+  </si>
+  <si>
+    <t>AASIM23200V88KK9Q</t>
   </si>
 </sst>
 </file>
@@ -436,7 +406,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,28 +448,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CancelacionCTS.xlsx
+++ b/src/Excel/entregable1/CancelacionCTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D80808B-720A-4297-A39D-9FDAD0C3567F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3171D8A0-17F5-4F99-B931-E175EF08365C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>usuario</t>
   </si>
@@ -60,16 +60,55 @@
     <t>SCISNEROSCSUP1</t>
   </si>
   <si>
-    <t>SCISNEROSC1</t>
-  </si>
-  <si>
-    <t>AASIM232006QX0W69</t>
-  </si>
-  <si>
-    <t>1001615285</t>
-  </si>
-  <si>
-    <t>AASIM23200V88KK9Q</t>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>3 ago. 2023, 19:24:55</t>
+  </si>
+  <si>
+    <t>AASIM23215X5XHXTS</t>
+  </si>
+  <si>
+    <t>ebenito</t>
+  </si>
+  <si>
+    <t>1010830067</t>
+  </si>
+  <si>
+    <t>AASIM23215LZYHW6G</t>
+  </si>
+  <si>
+    <t>AASIM232151WYCGL9</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3 ago. 2023, 19:42:30</t>
+  </si>
+  <si>
+    <t>AASIM23215T36YQWV</t>
+  </si>
+  <si>
+    <t>3 ago. 2023, 19:44:32</t>
+  </si>
+  <si>
+    <t>AASIM23215613MKZ4</t>
+  </si>
+  <si>
+    <t>AASIM232151MYDR73</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>3 ago. 2023, 20:01:37</t>
+  </si>
+  <si>
+    <t>AASIM23215LRVT501</t>
+  </si>
+  <si>
+    <t>3 ago. 2023, 20:06:16</t>
   </si>
 </sst>
 </file>
@@ -406,7 +445,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -448,13 +487,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -462,8 +501,14 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
